--- a/LOGS/4b7ce145-550f-4835-9c82-86b4f77a291e/main_page_service_output/notes_transformed_standard_cropped_df.xlsx
+++ b/LOGS/4b7ce145-550f-4835-9c82-86b4f77a291e/main_page_service_output/notes_transformed_standard_cropped_df.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="81">
   <si>
     <t>rows</t>
   </si>
@@ -38,6 +38,9 @@
     <t>value</t>
   </si>
   <si>
+    <t>Note</t>
+  </si>
+  <si>
     <t>None Cash at bank</t>
   </si>
   <si>
@@ -50,6 +53,9 @@
     <t>Consolidated</t>
   </si>
   <si>
+    <t>9</t>
+  </si>
+  <si>
     <t>Current Tax funding receivable related party</t>
   </si>
   <si>
@@ -71,6 +77,9 @@
     <t>Trade and other receivables</t>
   </si>
   <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>In AUD Coal stocks</t>
   </si>
   <si>
@@ -86,6 +95,9 @@
     <t>Inventories</t>
   </si>
   <si>
+    <t>11</t>
+  </si>
+  <si>
     <t>Cost Balance at1 1 January 2022</t>
   </si>
   <si>
@@ -137,6 +149,9 @@
     <t>Total</t>
   </si>
   <si>
+    <t>12</t>
+  </si>
+  <si>
     <t>None nan In AUD</t>
   </si>
   <si>
@@ -155,12 +170,18 @@
     <t>None 14.0 Employee benefits</t>
   </si>
   <si>
+    <t>13</t>
+  </si>
+  <si>
     <t>None nan Joint Venture employee benefits</t>
   </si>
   <si>
     <t>None nan Provisions</t>
   </si>
   <si>
+    <t>14</t>
+  </si>
+  <si>
     <t>Current Provision for take or pay nan</t>
   </si>
   <si>
@@ -197,6 +218,9 @@
     <t>Non-current Balance at 31 December 2022 nan</t>
   </si>
   <si>
+    <t>15</t>
+  </si>
+  <si>
     <t>None Sale of goods</t>
   </si>
   <si>
@@ -209,6 +233,9 @@
     <t>Revenue</t>
   </si>
   <si>
+    <t>4</t>
+  </si>
+  <si>
     <t>None Net foreign currency gain</t>
   </si>
   <si>
@@ -227,6 +254,9 @@
     <t>Other income</t>
   </si>
   <si>
+    <t>5</t>
+  </si>
+  <si>
     <t>None JV operating expenses</t>
   </si>
   <si>
@@ -234,6 +264,9 @@
   </si>
   <si>
     <t>Other expenses</t>
+  </si>
+  <si>
+    <t>6</t>
   </si>
 </sst>
 </file>
@@ -591,13 +624,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -610,13 +643,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2">
         <v>2022</v>
@@ -624,13 +660,16 @@
       <c r="D2">
         <v>6387380</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>2022</v>
@@ -638,13 +677,16 @@
       <c r="D3">
         <v>6387380</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4">
         <v>2022</v>
@@ -652,13 +694,16 @@
       <c r="D4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5">
         <v>2021</v>
@@ -666,13 +711,16 @@
       <c r="D5">
         <v>4075354</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6">
         <v>2021</v>
@@ -680,19 +728,25 @@
       <c r="D6">
         <v>4075354</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7">
         <v>2021</v>
       </c>
       <c r="D7">
         <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -702,13 +756,13 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -721,13 +775,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="C2">
         <v>2022</v>
@@ -735,13 +792,16 @@
       <c r="D2">
         <v>424699</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="C3">
         <v>2022</v>
@@ -749,13 +809,16 @@
       <c r="D3">
         <v>424699</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="C4">
         <v>2022</v>
@@ -763,13 +826,16 @@
       <c r="D4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="C5">
         <v>2022</v>
@@ -777,13 +843,16 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="B6" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="C6">
         <v>2021</v>
@@ -791,13 +860,16 @@
       <c r="D6">
         <v>446647</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="B7" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="C7">
         <v>2021</v>
@@ -805,13 +877,16 @@
       <c r="D7">
         <v>446647</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="B8" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="C8">
         <v>2021</v>
@@ -819,19 +894,25 @@
       <c r="D8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="B9" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="C9">
         <v>2021</v>
       </c>
       <c r="D9">
         <v>2022</v>
+      </c>
+      <c r="E9" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -853,13 +934,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -872,13 +953,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2">
         <v>2022</v>
@@ -886,13 +970,16 @@
       <c r="D2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C3">
         <v>2022</v>
@@ -900,13 +987,16 @@
       <c r="D3">
         <v>108249</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C4">
         <v>2022</v>
@@ -914,13 +1004,16 @@
       <c r="D4">
         <v>113896</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C5">
         <v>2022</v>
@@ -928,13 +1021,16 @@
       <c r="D5">
         <v>68783</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C6">
         <v>2022</v>
@@ -942,13 +1038,16 @@
       <c r="D6">
         <v>290928</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C7">
         <v>2022</v>
@@ -956,13 +1055,16 @@
       <c r="D7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C8">
         <v>2021</v>
@@ -970,13 +1072,16 @@
       <c r="D8">
         <v>343293</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C9">
         <v>2021</v>
@@ -984,13 +1089,16 @@
       <c r="D9">
         <v>116819</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C10">
         <v>2021</v>
@@ -998,13 +1106,16 @@
       <c r="D10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C11">
         <v>2021</v>
@@ -1012,13 +1123,16 @@
       <c r="D11">
         <v>95745</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C12">
         <v>2021</v>
@@ -1026,19 +1140,25 @@
       <c r="D12">
         <v>555857</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C13">
         <v>2021</v>
       </c>
       <c r="D13">
         <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1048,13 +1168,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1067,13 +1187,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C2">
         <v>2022</v>
@@ -1081,13 +1204,16 @@
       <c r="D2">
         <v>535348</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C3">
         <v>2022</v>
@@ -1095,13 +1221,16 @@
       <c r="D3">
         <v>312838</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C4">
         <v>2022</v>
@@ -1109,13 +1238,16 @@
       <c r="D4">
         <v>-82018</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C5">
         <v>2022</v>
@@ -1123,13 +1255,16 @@
       <c r="D5">
         <v>766168</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C6">
         <v>2021</v>
@@ -1137,13 +1272,16 @@
       <c r="D6">
         <v>158181</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C7">
         <v>2021</v>
@@ -1151,13 +1289,16 @@
       <c r="D7">
         <v>282620</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C8">
         <v>2021</v>
@@ -1165,19 +1306,25 @@
       <c r="D8">
         <v>-68845</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C9">
         <v>2021</v>
       </c>
       <c r="D9">
         <v>371956</v>
+      </c>
+      <c r="E9" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1187,13 +1334,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D67"/>
+  <dimension ref="A1:E67"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1206,13 +1353,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C2">
         <v>2022</v>
@@ -1220,13 +1370,16 @@
       <c r="D2">
         <v>1964984</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C3">
         <v>2022</v>
@@ -1234,13 +1387,16 @@
       <c r="D3">
         <v>26478</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C4">
         <v>2022</v>
@@ -1248,13 +1404,16 @@
       <c r="D4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C5">
         <v>2022</v>
@@ -1262,13 +1421,16 @@
       <c r="D5">
         <v>-259119</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C6">
         <v>2022</v>
@@ -1276,13 +1438,16 @@
       <c r="D6">
         <v>1732343</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C7">
         <v>2022</v>
@@ -1290,13 +1455,16 @@
       <c r="D7">
         <v>742495</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C8">
         <v>2022</v>
@@ -1304,13 +1472,16 @@
       <c r="D8">
         <v>56020</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C9">
         <v>2022</v>
@@ -1318,13 +1489,16 @@
       <c r="D9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C10">
         <v>2022</v>
@@ -1332,13 +1506,16 @@
       <c r="D10">
         <v>798515</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C11">
         <v>2021</v>
@@ -1346,13 +1523,16 @@
       <c r="D11">
         <v>1222489</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C12">
         <v>2022</v>
@@ -1360,13 +1540,16 @@
       <c r="D12">
         <v>933828</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C13">
         <v>2022</v>
@@ -1374,13 +1557,16 @@
       <c r="D13">
         <v>12466018</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C14">
         <v>2022</v>
@@ -1388,13 +1574,16 @@
       <c r="D14">
         <v>1130891</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C15">
         <v>2022</v>
@@ -1402,13 +1591,16 @@
       <c r="D15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C16">
         <v>2022</v>
@@ -1416,13 +1608,16 @@
       <c r="D16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C17">
         <v>2022</v>
@@ -1430,13 +1625,16 @@
       <c r="D17">
         <v>13596909</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C18">
         <v>2022</v>
@@ -1444,13 +1642,16 @@
       <c r="D18">
         <v>8728892</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C19">
         <v>2022</v>
@@ -1458,27 +1659,33 @@
       <c r="D19">
         <v>1205000</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20">
+        <v>2022</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
         <v>32</v>
       </c>
-      <c r="C20">
-        <v>2022</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>28</v>
-      </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C21">
         <v>2022</v>
@@ -1486,13 +1693,16 @@
       <c r="D21">
         <v>9933892</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C22">
         <v>2021</v>
@@ -1500,13 +1710,16 @@
       <c r="D22">
         <v>3737126</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C23">
         <v>2022</v>
@@ -1514,13 +1727,16 @@
       <c r="D23">
         <v>3663017</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C24">
         <v>2022</v>
@@ -1528,13 +1744,16 @@
       <c r="D24">
         <v>2266061</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C25">
         <v>2022</v>
@@ -1542,13 +1761,16 @@
       <c r="D25">
         <v>125263</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="E25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C26">
         <v>2022</v>
@@ -1556,13 +1778,16 @@
       <c r="D26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="E26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C27">
         <v>2022</v>
@@ -1570,13 +1795,16 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C28">
         <v>2022</v>
@@ -1584,13 +1812,16 @@
       <c r="D28">
         <v>2391324</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="E28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C29">
         <v>2022</v>
@@ -1598,13 +1829,16 @@
       <c r="D29">
         <v>986195</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="E29" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C30">
         <v>2022</v>
@@ -1612,13 +1846,16 @@
       <c r="D30">
         <v>139293</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="E30" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C31">
         <v>2022</v>
@@ -1626,13 +1863,16 @@
       <c r="D31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="E31" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C32">
         <v>2022</v>
@@ -1640,13 +1880,16 @@
       <c r="D32">
         <v>1125488</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="E32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C33">
         <v>2021</v>
@@ -1654,13 +1897,16 @@
       <c r="D33">
         <v>1279866</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="E33" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C34">
         <v>2022</v>
@@ -1668,13 +1914,16 @@
       <c r="D34">
         <v>1265836</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="E34" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C35">
         <v>2022</v>
@@ -1682,13 +1931,16 @@
       <c r="D35">
         <v>14839237</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C36">
         <v>2022</v>
@@ -1696,13 +1948,16 @@
       <c r="D36">
         <v>522953</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="E36" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C37">
         <v>2022</v>
@@ -1710,13 +1965,16 @@
       <c r="D37">
         <v>-15773</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C38">
         <v>2022</v>
@@ -1724,13 +1982,16 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B39" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C39">
         <v>2022</v>
@@ -1738,13 +1999,16 @@
       <c r="D39">
         <v>15346417</v>
       </c>
-    </row>
-    <row r="40" spans="1:4">
+      <c r="E39" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B40" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C40">
         <v>2022</v>
@@ -1752,13 +2016,16 @@
       <c r="D40">
         <v>7678818</v>
       </c>
-    </row>
-    <row r="41" spans="1:4">
+      <c r="E40" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B41" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C41">
         <v>2022</v>
@@ -1766,13 +2033,16 @@
       <c r="D41">
         <v>975910</v>
       </c>
-    </row>
-    <row r="42" spans="1:4">
+      <c r="E41" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B42" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C42">
         <v>2022</v>
@@ -1780,13 +2050,16 @@
       <c r="D42">
         <v>-15732</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B43" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C43">
         <v>2022</v>
@@ -1794,13 +2067,16 @@
       <c r="D43">
         <v>8638996</v>
       </c>
-    </row>
-    <row r="44" spans="1:4">
+      <c r="E43" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B44" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C44">
         <v>2021</v>
@@ -1808,13 +2084,16 @@
       <c r="D44">
         <v>7160419</v>
       </c>
-    </row>
-    <row r="45" spans="1:4">
+      <c r="E44" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B45" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C45">
         <v>2022</v>
@@ -1822,13 +2101,16 @@
       <c r="D45">
         <v>6707421</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B46" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C46">
         <v>2022</v>
@@ -1836,13 +2118,16 @@
       <c r="D46">
         <v>4015370</v>
       </c>
-    </row>
-    <row r="47" spans="1:4">
+      <c r="E46" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B47" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C47">
         <v>2022</v>
@@ -1850,13 +2135,16 @@
       <c r="D47">
         <v>2041012</v>
       </c>
-    </row>
-    <row r="48" spans="1:4">
+      <c r="E47" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B48" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C48">
         <v>2022</v>
@@ -1864,13 +2152,16 @@
       <c r="D48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:4">
+      <c r="E48" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B49" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C49">
         <v>2022</v>
@@ -1878,13 +2169,16 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B50" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C50">
         <v>2022</v>
@@ -1892,13 +2186,16 @@
       <c r="D50">
         <v>6056382</v>
       </c>
-    </row>
-    <row r="51" spans="1:4">
+      <c r="E50" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B51" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C51">
         <v>2022</v>
@@ -1906,13 +2203,16 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B52" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C52">
         <v>2022</v>
@@ -1920,13 +2220,16 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B53" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C53">
         <v>2022</v>
@@ -1934,13 +2237,16 @@
       <c r="D53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:4">
+      <c r="E53" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B54" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C54">
         <v>2022</v>
@@ -1948,13 +2254,16 @@
       <c r="D54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:4">
+      <c r="E54" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B55" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C55">
         <v>2021</v>
@@ -1962,13 +2271,16 @@
       <c r="D55">
         <v>4015370</v>
       </c>
-    </row>
-    <row r="56" spans="1:4">
+      <c r="E55" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B56" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C56">
         <v>2022</v>
@@ -1976,13 +2288,16 @@
       <c r="D56">
         <v>6056382</v>
       </c>
-    </row>
-    <row r="57" spans="1:4">
+      <c r="E56" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B57" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C57">
         <v>2022</v>
@@ -1990,13 +2305,16 @@
       <c r="D57">
         <v>35551670</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B58" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C58">
         <v>2022</v>
@@ -2004,13 +2322,16 @@
       <c r="D58">
         <v>3846597</v>
       </c>
-    </row>
-    <row r="59" spans="1:4">
+      <c r="E58" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B59" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C59">
         <v>2022</v>
@@ -2018,13 +2339,16 @@
       <c r="D59">
         <v>-15773</v>
       </c>
-    </row>
-    <row r="60" spans="1:4">
+      <c r="E59" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B60" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C60">
         <v>2022</v>
@@ -2032,13 +2356,16 @@
       <c r="D60">
         <v>-259119</v>
       </c>
-    </row>
-    <row r="61" spans="1:4">
+      <c r="E60" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B61" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C61">
         <v>2022</v>
@@ -2046,13 +2373,16 @@
       <c r="D61">
         <v>39123375</v>
       </c>
-    </row>
-    <row r="62" spans="1:4">
+      <c r="E61" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B62" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C62">
         <v>2022</v>
@@ -2060,13 +2390,16 @@
       <c r="D62">
         <v>18136400</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
       <c r="A63" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B63" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C63">
         <v>2022</v>
@@ -2074,13 +2407,16 @@
       <c r="D63">
         <v>2376223</v>
       </c>
-    </row>
-    <row r="64" spans="1:4">
+      <c r="E63" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
       <c r="A64" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B64" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C64">
         <v>2022</v>
@@ -2088,13 +2424,16 @@
       <c r="D64">
         <v>-15732</v>
       </c>
-    </row>
-    <row r="65" spans="1:4">
+      <c r="E64" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
       <c r="A65" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B65" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C65">
         <v>2022</v>
@@ -2102,13 +2441,16 @@
       <c r="D65">
         <v>20496891</v>
       </c>
-    </row>
-    <row r="66" spans="1:4">
+      <c r="E65" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
       <c r="A66" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B66" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C66">
         <v>2021</v>
@@ -2116,19 +2458,25 @@
       <c r="D66">
         <v>17415270</v>
       </c>
-    </row>
-    <row r="67" spans="1:4">
+      <c r="E66" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
       <c r="A67" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B67" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C67">
         <v>2022</v>
       </c>
       <c r="D67">
         <v>18626484</v>
+      </c>
+      <c r="E67" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -2138,13 +2486,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2157,13 +2505,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2">
         <v>2022</v>
@@ -2171,13 +2522,16 @@
       <c r="D2">
         <v>2022</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>2022</v>
@@ -2185,13 +2539,16 @@
       <c r="D3">
         <v>742849</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4">
         <v>2022</v>
@@ -2199,13 +2556,16 @@
       <c r="D4">
         <v>1420777</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5">
         <v>2022</v>
@@ -2213,13 +2573,16 @@
       <c r="D5">
         <v>1046381</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6">
         <v>2022</v>
@@ -2227,27 +2590,33 @@
       <c r="D6">
         <v>3210007</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>2022</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
         <v>42</v>
       </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7">
-        <v>2022</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>37</v>
-      </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8">
         <v>2021</v>
@@ -2255,13 +2624,16 @@
       <c r="D8">
         <v>2021</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9">
         <v>2021</v>
@@ -2269,13 +2641,16 @@
       <c r="D9">
         <v>689004</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10">
         <v>2021</v>
@@ -2283,13 +2658,16 @@
       <c r="D10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11">
         <v>2021</v>
@@ -2297,13 +2675,16 @@
       <c r="D11">
         <v>1444057</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12">
         <v>2021</v>
@@ -2311,19 +2692,25 @@
       <c r="D12">
         <v>2133061</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13">
         <v>2021</v>
       </c>
       <c r="D13">
         <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -2333,13 +2720,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2352,13 +2739,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2">
         <v>2022</v>
@@ -2366,13 +2756,16 @@
       <c r="D2">
         <v>350206</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>2022</v>
@@ -2380,13 +2773,16 @@
       <c r="D3">
         <v>350206</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4">
         <v>2022</v>
@@ -2394,13 +2790,16 @@
       <c r="D4">
         <v>5866</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5">
         <v>2022</v>
@@ -2408,13 +2807,16 @@
       <c r="D5">
         <v>5866</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6">
         <v>2022</v>
@@ -2422,13 +2824,16 @@
       <c r="D6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7">
         <v>2021</v>
@@ -2436,13 +2841,16 @@
       <c r="D7">
         <v>366211</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8">
         <v>2021</v>
@@ -2450,13 +2858,16 @@
       <c r="D8">
         <v>366211</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9">
         <v>2021</v>
@@ -2464,13 +2875,16 @@
       <c r="D9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10">
         <v>2021</v>
@@ -2478,19 +2892,25 @@
       <c r="D10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11">
         <v>2021</v>
       </c>
       <c r="D11">
         <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -2500,13 +2920,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2519,13 +2939,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2">
         <v>2022</v>
@@ -2533,13 +2956,16 @@
       <c r="D2">
         <v>156891</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>2022</v>
@@ -2547,13 +2973,16 @@
       <c r="D3">
         <v>375017</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4">
         <v>2022</v>
@@ -2561,13 +2990,16 @@
       <c r="D4">
         <v>375017</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5">
         <v>2022</v>
@@ -2575,13 +3007,16 @@
       <c r="D5">
         <v>1074129</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6">
         <v>2022</v>
@@ -2589,13 +3024,16 @@
       <c r="D6">
         <v>1074129</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7">
         <v>2022</v>
@@ -2603,13 +3041,16 @@
       <c r="D7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8">
         <v>2022</v>
@@ -2617,13 +3058,16 @@
       <c r="D8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9">
         <v>2022</v>
@@ -2631,13 +3075,16 @@
       <c r="D9">
         <v>1839833</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10">
         <v>2022</v>
@@ -2645,13 +3092,16 @@
       <c r="D10">
         <v>-232289</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11">
         <v>2022</v>
@@ -2659,13 +3109,16 @@
       <c r="D11">
         <v>-259119</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12">
         <v>2022</v>
@@ -2673,13 +3126,16 @@
       <c r="D12">
         <v>100721</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13">
         <v>2022</v>
@@ -2687,13 +3143,16 @@
       <c r="D13">
         <v>1449146</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14">
         <v>2021</v>
@@ -2701,13 +3160,16 @@
       <c r="D14">
         <v>156891</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15">
         <v>2021</v>
@@ -2715,13 +3177,16 @@
       <c r="D15">
         <v>1063576</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16">
         <v>2021</v>
@@ -2729,13 +3194,16 @@
       <c r="D16">
         <v>1220467</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17">
         <v>2021</v>
@@ -2743,13 +3211,16 @@
       <c r="D17">
         <v>776257</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18">
         <v>2021</v>
@@ -2757,13 +3228,16 @@
       <c r="D18">
         <v>776257</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19">
         <v>2021</v>
@@ -2771,13 +3245,16 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20">
         <v>2021</v>
@@ -2785,13 +3262,16 @@
       <c r="D20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21">
         <v>2021</v>
@@ -2799,13 +3279,16 @@
       <c r="D21">
         <v>1996724</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22">
         <v>2021</v>
@@ -2813,13 +3296,16 @@
       <c r="D22">
         <v>-232289</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23">
         <v>2021</v>
@@ -2827,13 +3313,16 @@
       <c r="D23">
         <v>-416010</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24">
         <v>2021</v>
@@ -2841,19 +3330,25 @@
       <c r="D24">
         <v>100721</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25">
         <v>2021</v>
       </c>
       <c r="D25">
         <v>1449146</v>
+      </c>
+      <c r="E25" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -2863,13 +3358,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2882,13 +3377,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C2">
         <v>2022</v>
@@ -2896,13 +3394,16 @@
       <c r="D2">
         <v>15135308</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C3">
         <v>2022</v>
@@ -2910,13 +3411,16 @@
       <c r="D3">
         <v>15135308</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C4">
         <v>2022</v>
@@ -2924,13 +3428,16 @@
       <c r="D4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C5">
         <v>2021</v>
@@ -2938,13 +3445,16 @@
       <c r="D5">
         <v>5624766</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C6">
         <v>2021</v>
@@ -2952,19 +3462,25 @@
       <c r="D6">
         <v>5624766</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C7">
         <v>2021</v>
       </c>
       <c r="D7">
         <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -2974,13 +3490,13 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2993,13 +3509,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C2">
         <v>2022</v>
@@ -3007,13 +3526,16 @@
       <c r="D2">
         <v>102310</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C3">
         <v>2022</v>
@@ -3021,13 +3543,16 @@
       <c r="D3">
         <v>8805</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C4">
         <v>2022</v>
@@ -3035,13 +3560,16 @@
       <c r="D4">
         <v>783730</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="B5" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C5">
         <v>2022</v>
@@ -3049,13 +3577,16 @@
       <c r="D5">
         <v>18493</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="B6" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C6">
         <v>2022</v>
@@ -3063,13 +3594,16 @@
       <c r="D6">
         <v>913338</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B7" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C7">
         <v>2022</v>
@@ -3077,13 +3611,16 @@
       <c r="D7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="B8" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C8">
         <v>2021</v>
@@ -3091,13 +3628,16 @@
       <c r="D8">
         <v>50087</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="B9" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C9">
         <v>2021</v>
@@ -3105,13 +3645,16 @@
       <c r="D9">
         <v>77893</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="B10" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C10">
         <v>2021</v>
@@ -3119,13 +3662,16 @@
       <c r="D10">
         <v>178660</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="B11" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C11">
         <v>2021</v>
@@ -3133,13 +3679,16 @@
       <c r="D11">
         <v>47902</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="B12" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C12">
         <v>2021</v>
@@ -3147,19 +3696,25 @@
       <c r="D12">
         <v>354542</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B13" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C13">
         <v>2021</v>
       </c>
       <c r="D13">
         <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
